--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16-a0001\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{460832B8-DB52-4713-9E77-F952E51616FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE58A5-DB9C-48F6-8B75-62495B235B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D0C9AFC6-5B06-4CB1-962A-3D68FCCBB752}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>MD5</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>50 entradas</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Base</t>
   </si>
 </sst>
 </file>
@@ -64,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
-    <numFmt numFmtId="175" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -100,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,17 +120,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -434,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A48161-4497-4E2A-B574-C7AE2B819948}">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,93 +481,188 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>SUM(0.0000321865081787109,0.0000324249267578125,0.0000345706939697265,0.0000336170196533203,0.0000398159027099609,0.000034332275390625,0.0000393390655517578,0.0000367164611816406,0.0000321865081787109,0.0000348091125488281)/10</f>
         <v>3.4999847412109344E-5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>5.8412551879882799E-5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>1.01566314697265E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>1.4400482177734299E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f>SUM(0.0000557899475097656,0.0000443458557128906,0.0000605583190917968,0.0000379085540771484,0.0000374317169189453,0.0000426769256591796,0.0000367164611816406,0.0000369548797607421,0.0000422000885009765,0.0000443458557128906)/10</f>
         <v>4.3892860412597601E-5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>1.75237655639648E-4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>6.3419342041015598E-5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>6.5565109252929606E-5</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f>SUM(0.0000827312469482421,0.000125408172607421,0.0000562667846679687,0.000134229660034179,0.0000791549682617187,0.0000665187835693359,0.0000586509704589843,0.000078439712524414,0.000385046005249023,0.000152349472045898)/10</f>
         <v>1.2187957763671846E-4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>5.7458877563476502E-5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1.54972076416015E-4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>1.27077102661132E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:D13" si="0">B11*(LOG(C11,2))</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3">
+        <f>B14*(LOG(C14,2))</f>
+        <v>148.8549077596719</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
